--- a/myapp/files/9_MethodComparePercent/Scenario 361.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 361.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>3793</v>
+        <v>9639</v>
       </c>
       <c r="F2" t="n">
-        <v>3.71007971829608</v>
+        <v>2.17054507951234</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -593,10 +593,10 @@
         <v>1.36986301369863</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>5.26315789473684</v>
+        <v>1.88679245283019</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>3122</v>
+        <v>7044</v>
       </c>
       <c r="F3" t="n">
-        <v>3.05374871619308</v>
+        <v>1.58619354083255</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,16 +631,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.50877192982456</v>
+        <v>1.50943396226415</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>2.73972602739726</v>
+        <v>1.36986301369863</v>
       </c>
     </row>
     <row r="4">
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>4369</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.983827311172261</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -669,10 +669,10 @@
         <v>1.36986301369863</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1.13207547169811</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>4029</v>
+        <v>14780</v>
       </c>
       <c r="F5" t="n">
-        <v>3.94092042842471</v>
+        <v>3.32821415864638</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>1.75438596491228</v>
+        <v>2.64150943396226</v>
       </c>
       <c r="K5" t="n">
         <v>3</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>2805</v>
+        <v>17273</v>
       </c>
       <c r="F6" t="n">
-        <v>2.74367877928302</v>
+        <v>3.88959696632604</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>1.75438596491228</v>
+        <v>2.26415094339623</v>
       </c>
       <c r="K6" t="n">
         <v>3</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>1014</v>
+        <v>12325</v>
       </c>
       <c r="F7" t="n">
-        <v>0.991832542671296</v>
+        <v>2.77538832918245</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>1.75438596491228</v>
+        <v>1.50943396226415</v>
       </c>
       <c r="K7" t="n">
         <v>2</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>5004</v>
+        <v>11617</v>
       </c>
       <c r="F8" t="n">
-        <v>4.89460556560865</v>
+        <v>2.61595831400507</v>
       </c>
       <c r="G8" t="n">
         <v>4</v>
@@ -821,10 +821,10 @@
         <v>5.47945205479452</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J8" t="n">
-        <v>5.26315789473684</v>
+        <v>3.39622641509434</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>4415</v>
+        <v>11608</v>
       </c>
       <c r="F9" t="n">
-        <v>4.31848192888932</v>
+        <v>2.61393166126977</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -859,10 +859,10 @@
         <v>2.73972602739726</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J9" t="n">
-        <v>5.26315789473684</v>
+        <v>4.90566037735849</v>
       </c>
       <c r="K9" t="n">
         <v>3</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>3483</v>
+        <v>19150</v>
       </c>
       <c r="F10" t="n">
-        <v>3.4068567516017</v>
+        <v>4.31226665345589</v>
       </c>
       <c r="G10" t="n">
         <v>3</v>
@@ -897,16 +897,16 @@
         <v>4.10958904109589</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J10" t="n">
-        <v>1.75438596491228</v>
+        <v>6.79245283018868</v>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>4.10958904109589</v>
+        <v>5.47945205479452</v>
       </c>
     </row>
     <row r="11">
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>1849</v>
+        <v>8560</v>
       </c>
       <c r="F11" t="n">
-        <v>1.80857827554164</v>
+        <v>1.92757193491292</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J11" t="n">
-        <v>1.75438596491228</v>
+        <v>3.77358490566038</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>9377</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2.11154696655122</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -973,10 +973,10 @@
         <v>1.36986301369863</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1.50943396226415</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>7470</v>
+        <v>26461</v>
       </c>
       <c r="F13" t="n">
-        <v>7.30669535873233</v>
+        <v>5.95858422543584</v>
       </c>
       <c r="G13" t="n">
         <v>6</v>
@@ -1011,10 +1011,10 @@
         <v>8.21917808219178</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>7.01754385964912</v>
+        <v>5.66037735849057</v>
       </c>
       <c r="K13" t="n">
         <v>4</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>22969</v>
+        <v>58581</v>
       </c>
       <c r="F14" t="n">
-        <v>22.4668655548491</v>
+        <v>13.1914826541044</v>
       </c>
       <c r="G14" t="n">
         <v>7</v>
@@ -1049,16 +1049,16 @@
         <v>9.58904109589041</v>
       </c>
       <c r="I14" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="J14" t="n">
-        <v>14.0350877192982</v>
+        <v>9.81132075471698</v>
       </c>
       <c r="K14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L14" t="n">
-        <v>13.6986301369863</v>
+        <v>15.0684931506849</v>
       </c>
     </row>
     <row r="15">
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>14722</v>
+        <v>55034</v>
       </c>
       <c r="F15" t="n">
-        <v>14.4001565021764</v>
+        <v>12.3927562927567</v>
       </c>
       <c r="G15" t="n">
         <v>10</v>
@@ -1087,16 +1087,16 @@
         <v>13.6986301369863</v>
       </c>
       <c r="I15" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="J15" t="n">
-        <v>15.7894736842105</v>
+        <v>11.6981132075472</v>
       </c>
       <c r="K15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L15" t="n">
-        <v>17.8082191780822</v>
+        <v>16.4383561643836</v>
       </c>
     </row>
     <row r="16">
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>4449</v>
+        <v>16063</v>
       </c>
       <c r="F16" t="n">
-        <v>4.35173864136548</v>
+        <v>3.61712476524606</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1125,16 +1125,16 @@
         <v>1.36986301369863</v>
       </c>
       <c r="I16" t="n">
+        <v>13</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.90566037735849</v>
+      </c>
+      <c r="K16" t="n">
         <v>4</v>
       </c>
-      <c r="J16" t="n">
-        <v>7.01754385964912</v>
-      </c>
-      <c r="K16" t="n">
-        <v>5</v>
-      </c>
       <c r="L16" t="n">
-        <v>6.84931506849315</v>
+        <v>5.47945205479452</v>
       </c>
     </row>
     <row r="17">
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2625</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.591107047797479</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.13207547169811</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>128</v>
+        <v>15134</v>
       </c>
       <c r="F18" t="n">
-        <v>0.125201741086712</v>
+        <v>3.40792916623506</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1201,10 +1201,10 @@
         <v>1.36986301369863</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J18" t="n">
-        <v>1.75438596491228</v>
+        <v>3.77358490566038</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>5370</v>
+        <v>39519</v>
       </c>
       <c r="F19" t="n">
-        <v>5.25260429402846</v>
+        <v>8.89903216072707</v>
       </c>
       <c r="G19" t="n">
         <v>18</v>
@@ -1239,10 +1239,10 @@
         <v>24.6575342465753</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="J19" t="n">
-        <v>3.50877192982456</v>
+        <v>6.79245283018868</v>
       </c>
       <c r="K19" t="n">
         <v>6</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>4298</v>
+        <v>28851</v>
       </c>
       <c r="F20" t="n">
-        <v>4.20403971242725</v>
+        <v>6.49677311847812</v>
       </c>
       <c r="G20" t="n">
         <v>12</v>
@@ -1277,10 +1277,10 @@
         <v>16.4383561643836</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="J20" t="n">
-        <v>7.01754385964912</v>
+        <v>8.30188679245283</v>
       </c>
       <c r="K20" t="n">
         <v>4</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>2352</v>
+        <v>10880</v>
       </c>
       <c r="F21" t="n">
-        <v>2.30058199246833</v>
+        <v>2.44999797334726</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1315,16 +1315,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
+        <v>12</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4.52830188679245</v>
+      </c>
+      <c r="K21" t="n">
         <v>1</v>
       </c>
-      <c r="J21" t="n">
-        <v>1.75438596491228</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2</v>
-      </c>
       <c r="L21" t="n">
-        <v>2.73972602739726</v>
+        <v>1.36986301369863</v>
       </c>
     </row>
     <row r="22">
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1368</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.308051215766458</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.377358490566038</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>6570</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1.47945649677312</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1.13207547169811</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>2537</v>
+        <v>21423</v>
       </c>
       <c r="F24" t="n">
-        <v>2.48153763388272</v>
+        <v>4.8241090609392</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1429,16 +1429,16 @@
         <v>1.36986301369863</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J24" t="n">
-        <v>1.75438596491228</v>
+        <v>3.0188679245283</v>
       </c>
       <c r="K24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24" t="n">
-        <v>4.10958904109589</v>
+        <v>2.73972602739726</v>
       </c>
     </row>
     <row r="25">
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>4844</v>
+        <v>24229</v>
       </c>
       <c r="F25" t="n">
-        <v>4.73810338925026</v>
+        <v>5.45597434708004</v>
       </c>
       <c r="G25" t="n">
         <v>5</v>
@@ -1467,10 +1467,10 @@
         <v>6.84931506849315</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J25" t="n">
-        <v>7.01754385964912</v>
+        <v>4.52830188679245</v>
       </c>
       <c r="K25" t="n">
         <v>2</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>3582</v>
+        <v>11602</v>
       </c>
       <c r="F26" t="n">
-        <v>3.50369247322346</v>
+        <v>2.61258055944623</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1505,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J26" t="n">
-        <v>5.26315789473684</v>
+        <v>3.0188679245283</v>
       </c>
       <c r="K26" t="n">
         <v>3</v>
